--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99559.29693788495</v>
+        <v>18153750.94438663</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99559.29693788495</v>
+        <v>18153750.94438663</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>289633.6441610456</v>
+        <v>35014660.33619654</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289633.6441610456</v>
+        <v>35014660.33619654</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1412290917.994784</v>
+        <v>15999787.18669799</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17419.41572783684</v>
+        <v>441656.9613457</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33877.72743593375</v>
+        <v>745398.7377358663</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>50453.73634927795</v>
+        <v>1049140.514126031</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66943.70900686689</v>
+        <v>1352028.29564634</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>83438.10893725717</v>
+        <v>1655182.752144597</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99929.87662533378</v>
+        <v>1965634.768474558</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>116403.9127981848</v>
+        <v>2273791.212856875</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>132877.948971036</v>
+        <v>2581947.657239191</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>149351.9851438871</v>
+        <v>2890104.101621507</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>165826.0213167381</v>
+        <v>3198260.546003822</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>182300.0574895892</v>
+        <v>3506416.99038614</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198774.0936624403</v>
+        <v>3814573.434768457</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215248.1298352915</v>
+        <v>4122729.879150774</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>231929.6632745679</v>
+        <v>4372215.143701387</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>248730.1524511895</v>
+        <v>4640038.300199645</v>
       </c>
     </row>
   </sheetData>
